--- a/results/mp/logistic/corona/confidence/210/0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,163 +46,145 @@
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>co</t>
+    <t>of</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
 </sst>
 </file>
@@ -560,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -679,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6052631578947368</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5833333333333334</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8983050847457628</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5405405405405406</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4497354497354497</v>
+        <v>0.3624031007751938</v>
       </c>
       <c r="C8">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="D8">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.839622641509434</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L8">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,49 +911,49 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3728813559322034</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="C9">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>113</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>0.828125</v>
+      </c>
+      <c r="L9">
+        <v>106</v>
+      </c>
+      <c r="M9">
+        <v>106</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>22</v>
-      </c>
-      <c r="D9">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>37</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9">
-        <v>0.8224543080939948</v>
-      </c>
-      <c r="L9">
-        <v>315</v>
-      </c>
-      <c r="M9">
-        <v>315</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3725490196078431</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>32</v>
+        <v>304</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.7948717948717948</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>313</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>313</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,37 +1011,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3565891472868217</v>
+        <v>0.008442380751371888</v>
       </c>
       <c r="C11">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>332</v>
+        <v>2349</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.7878787878787878</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L11">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="M11">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,37 +1061,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2933333333333333</v>
+        <v>0.003698656803581857</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>53</v>
+        <v>5118</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.7872340425531915</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,95 +1103,47 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.2013422818791946</v>
-      </c>
-      <c r="C13">
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>0.80625</v>
+      </c>
+      <c r="L13">
+        <v>129</v>
+      </c>
+      <c r="M13">
+        <v>129</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13">
-        <v>30</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>119</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13">
-        <v>0.78125</v>
-      </c>
-      <c r="L13">
-        <v>125</v>
-      </c>
-      <c r="M13">
-        <v>125</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1638888888888889</v>
-      </c>
-      <c r="C14">
-        <v>59</v>
-      </c>
-      <c r="D14">
-        <v>59</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>301</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="K14">
-        <v>0.7804878048780488</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,45 +1155,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.008706868752015479</v>
-      </c>
-      <c r="C15">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>33</v>
-      </c>
-      <c r="E15">
-        <v>0.18</v>
-      </c>
-      <c r="F15">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>3074</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1275,221 +1185,173 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.00582977069568597</v>
-      </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-      <c r="D16">
-        <v>49</v>
-      </c>
-      <c r="E16">
-        <v>0.39</v>
-      </c>
-      <c r="F16">
-        <v>0.61</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>5116</v>
-      </c>
       <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L16">
+        <v>22</v>
+      </c>
+      <c r="M16">
+        <v>22</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="L17">
+        <v>64</v>
+      </c>
+      <c r="M17">
+        <v>64</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18">
+        <v>0.7676056338028169</v>
+      </c>
+      <c r="L18">
+        <v>109</v>
+      </c>
+      <c r="M18">
+        <v>109</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="L19">
+        <v>34</v>
+      </c>
+      <c r="M19">
+        <v>34</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L20">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <v>26</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K16">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L16">
-        <v>28</v>
-      </c>
-      <c r="M16">
-        <v>28</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.004222803136939473</v>
-      </c>
-      <c r="C17">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>44</v>
-      </c>
-      <c r="E17">
-        <v>0.52</v>
-      </c>
-      <c r="F17">
-        <v>0.48</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>4952</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="K21">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>34</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K17">
-        <v>0.7734375</v>
-      </c>
-      <c r="L17">
-        <v>99</v>
-      </c>
-      <c r="M17">
-        <v>99</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L18">
-        <v>44</v>
-      </c>
-      <c r="M18">
-        <v>44</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0.7535211267605634</v>
-      </c>
-      <c r="L19">
-        <v>107</v>
-      </c>
-      <c r="M19">
-        <v>107</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="L20">
-        <v>20</v>
-      </c>
-      <c r="M20">
-        <v>20</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L21">
-        <v>25</v>
-      </c>
-      <c r="M21">
-        <v>25</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="K22">
-        <v>0.7142857142857143</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1504,148 +1366,148 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23">
+        <v>0.6507936507936508</v>
+      </c>
+      <c r="L23">
+        <v>41</v>
+      </c>
+      <c r="M23">
+        <v>41</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <v>0.6279069767441861</v>
+      </c>
+      <c r="L24">
+        <v>27</v>
+      </c>
+      <c r="M24">
+        <v>27</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25">
+        <v>0.6264705882352941</v>
+      </c>
+      <c r="L25">
+        <v>213</v>
+      </c>
+      <c r="M25">
+        <v>213</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26">
+        <v>0.625</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>25</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>0.62</v>
+      </c>
+      <c r="L27">
+        <v>31</v>
+      </c>
+      <c r="M27">
+        <v>31</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K23">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L23">
-        <v>34</v>
-      </c>
-      <c r="M23">
-        <v>34</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24">
-        <v>0.6984126984126984</v>
-      </c>
-      <c r="L24">
-        <v>44</v>
-      </c>
-      <c r="M24">
-        <v>44</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25">
-        <v>0.68</v>
-      </c>
-      <c r="L25">
-        <v>34</v>
-      </c>
-      <c r="M25">
-        <v>34</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26">
-        <v>0.6744186046511628</v>
-      </c>
-      <c r="L26">
-        <v>29</v>
-      </c>
-      <c r="M26">
-        <v>29</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27">
-        <v>0.602510460251046</v>
-      </c>
-      <c r="L27">
-        <v>144</v>
-      </c>
-      <c r="M27">
-        <v>144</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="K28">
         <v>0.6</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1657,21 +1519,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.5882352941176471</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L29">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="M29">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1683,73 +1545,73 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L30">
+        <v>40</v>
+      </c>
+      <c r="M30">
+        <v>40</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>0.5661016949152542</v>
+      </c>
+      <c r="L31">
+        <v>167</v>
+      </c>
+      <c r="M31">
+        <v>167</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32">
+        <v>0.5425531914893617</v>
+      </c>
+      <c r="L32">
         <v>51</v>
       </c>
-      <c r="K30">
-        <v>0.5851063829787234</v>
-      </c>
-      <c r="L30">
-        <v>55</v>
-      </c>
-      <c r="M30">
-        <v>55</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31">
-        <v>0.5559322033898305</v>
-      </c>
-      <c r="L31">
-        <v>164</v>
-      </c>
-      <c r="M31">
-        <v>164</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K32">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="L32">
-        <v>35</v>
-      </c>
       <c r="M32">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1761,21 +1623,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1787,21 +1649,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.4831460674157304</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L34">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1813,47 +1675,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.4634146341463415</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.4509803921568628</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1865,12 +1727,12 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K37">
         <v>0.3205128205128205</v>
@@ -1896,158 +1758,106 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.3013698630136986</v>
+        <v>0.01668056713928273</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>51</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.02335279399499583</v>
+        <v>0.007132132132132132</v>
       </c>
       <c r="L39">
+        <v>19</v>
+      </c>
+      <c r="M39">
         <v>28</v>
       </c>
-      <c r="M39">
-        <v>29</v>
-      </c>
       <c r="N39">
-        <v>0.97</v>
+        <v>0.68</v>
       </c>
       <c r="O39">
-        <v>0.03000000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>1171</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="K40">
-        <v>0.009384384384384385</v>
+        <v>0.005441119315973571</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N40">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
       <c r="O40">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>2639</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.004640371229698376</v>
+        <v>0.004012841091492777</v>
       </c>
       <c r="L41">
         <v>20</v>
       </c>
       <c r="M41">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N41">
-        <v>0.53</v>
+        <v>0.62</v>
       </c>
       <c r="O41">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>4290</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42">
-        <v>0.004623115577889447</v>
-      </c>
-      <c r="L42">
-        <v>23</v>
-      </c>
-      <c r="M42">
-        <v>44</v>
-      </c>
-      <c r="N42">
-        <v>0.52</v>
-      </c>
-      <c r="O42">
-        <v>0.48</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>4952</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K43">
-        <v>0.003700097370983447</v>
-      </c>
-      <c r="L43">
-        <v>19</v>
-      </c>
-      <c r="M43">
-        <v>49</v>
-      </c>
-      <c r="N43">
-        <v>0.39</v>
-      </c>
-      <c r="O43">
-        <v>0.61</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>5116</v>
+        <v>4964</v>
       </c>
     </row>
   </sheetData>
